--- a/WebPhisic/データベース.xlsx
+++ b/WebPhisic/データベース.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/output2/WebPhisic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671863EC-E713-754F-A7CC-0553E008359E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170C035B-6B33-7B45-A83E-7AC74C239E25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9E7F385C-F4BA-1043-82B7-83E9F6B742F3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{9E7F385C-F4BA-1043-82B7-83E9F6B742F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,10 +137,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>int1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>verchar(255)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -205,6 +201,10 @@
   </si>
   <si>
     <t>AUTO_INCREMENT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int(1)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -353,20 +353,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,7 +685,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -714,197 +714,197 @@
         <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8"/>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8"/>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8"/>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8"/>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8"/>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8"/>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8"/>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8"/>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="E12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8"/>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="7"/>
+      <c r="D13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="7"/>
+      <c r="C14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="7"/>
+      <c r="C15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="8"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
@@ -913,139 +913,139 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="F16" s="7"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8"/>
+      <c r="B21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6" t="s">
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="8"/>
+      <c r="B23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8"/>
+      <c r="B24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6" t="s">
+      <c r="C24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="8"/>
+      <c r="B25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="9"/>
+      <c r="B26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="8"/>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="F26" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
